--- a/pddl-doc/progress.xlsx
+++ b/pddl-doc/progress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzz/Workspace/PDDL/pddl-doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>功能模块</t>
     <rPh sb="0" eb="1">
@@ -1163,41 +1163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态的增加获取Connection等待时间</t>
-    <rPh sb="0" eb="1">
-      <t>dong't</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zeng'jia</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huo'q</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>deng'dai</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以限定指定SQL</t>
-    <rPh sb="0" eb="1">
-      <t>ke'y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xian'ding</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi'ding</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分布式事务</t>
     <rPh sb="0" eb="1">
       <t>fen'bu'shi</t>
@@ -1306,6 +1271,242 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>jie'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对于排序取数据优化（在没有聚合和groupby情况下）</t>
+    <rPh sb="0" eb="1">
+      <t>zhen'dui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pai'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu'shu'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'h</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai'mei'you</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ju'h</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>he</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在时间片内限制SQL执行次数</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian'zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi'xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ci'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Oracle、MySQL等数据库类型</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu'ju'k</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>lei'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由配置集中化修改使用disconf</t>
+    <rPh sb="0" eb="1">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'zhong'h</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态增加或删除数据源</t>
+    <rPh sb="0" eb="1">
+      <t>dong't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'ju'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA方案</t>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表路由结果缓存（没找到路由规则情况下遍历所有符合条件的表）根据主键存储与表名的关系</t>
+    <rPh sb="0" eb="1">
+      <t>zi'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huan'c</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei'zhao'dao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lu'you</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>qing'k</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bian'l</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tiao'j</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>gen'j</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhu'j</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>cun'c</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>de</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>guan'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中监控</t>
+    <rPh sb="0" eb="1">
+      <t>ji'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jian'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供告警</t>
+    <rPh sb="0" eb="1">
+      <t>ti'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gao'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发测试</t>
+    <rPh sb="0" eb="1">
+      <t>bing'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hint规则路由</t>
+    <rPh sb="4" eb="5">
+      <t>gui'z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lu'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1349,7 +1550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1371,12 +1572,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,14 +1648,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1764,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E62"/>
+  <dimension ref="B2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1790,11 +1984,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1806,7 +2000,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1816,7 +2010,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1826,7 +2020,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +2030,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1846,7 +2040,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +2050,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1866,437 +2060,433 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="14"/>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="6">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="5">
         <v>0</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
-      <c r="C25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="14"/>
-      <c r="C29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="E33" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="7"/>
+      <c r="C36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="7"/>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="7"/>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="7"/>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="7"/>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="7"/>
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="7"/>
+      <c r="C42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="7"/>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="5">
         <v>0</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="14"/>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="8"/>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
-      <c r="C34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
-      <c r="C36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="8"/>
-      <c r="C37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="8"/>
-      <c r="C38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="8"/>
+      <c r="C44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="8"/>
-      <c r="C41" s="2" t="s">
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="7"/>
+      <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="8"/>
-      <c r="C42" s="2" t="s">
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="7"/>
+      <c r="C47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-      <c r="C43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="7"/>
+      <c r="C48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="5">
         <v>0</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="11"/>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="11"/>
-      <c r="C46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="12"/>
-      <c r="C47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="6">
+        <v>85</v>
+      </c>
+      <c r="D49" s="5">
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2306,173 +2496,283 @@
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="8"/>
       <c r="C50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="8"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" s="8"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="8"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="11"/>
+      <c r="C55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="7"/>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="7"/>
+      <c r="C58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="7"/>
+      <c r="C59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="7"/>
+      <c r="C60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="7"/>
+      <c r="C61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="7"/>
+      <c r="C62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D62" s="5">
         <v>0</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E62" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="7"/>
+      <c r="C63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="7"/>
+      <c r="C64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="7"/>
+      <c r="C65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="8"/>
+      <c r="C66" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="7"/>
+      <c r="C68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="8"/>
-      <c r="C55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="6">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="5">
         <v>0</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="9"/>
-      <c r="C56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="8"/>
-      <c r="C58" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="9"/>
-      <c r="C59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pddl-doc/progress.xlsx
+++ b/pddl-doc/progress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>功能模块</t>
     <rPh sb="0" eb="1">
@@ -1507,6 +1507,25 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>lu'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只实现了多租户</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'shi'xian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>le</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu'h</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1960,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2258,8 +2277,8 @@
       <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="5">
-        <v>0</v>
+      <c r="D28" s="4">
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>73</v>
@@ -2421,10 +2440,10 @@
         <v>86</v>
       </c>
       <c r="D43" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
@@ -2548,8 +2567,8 @@
       <c r="C54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="5">
-        <v>0</v>
+      <c r="D54" s="4">
+        <v>1</v>
       </c>
       <c r="E54" s="2"/>
     </row>
